--- a/test_system.xlsx
+++ b/test_system.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908CDCC2-A429-5845-BE11-4D7827150E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089148AF-AB0D-F44D-B6B1-840C2D50BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19040" yWindow="6580" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{6CC9C7EE-7165-244E-8401-1CDAC7B98A29}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Triggers" sheetId="2" r:id="rId2"/>
     <sheet name="Global" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,7 +605,7 @@
         <v>2.5000000000000001E-11</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>2.5000000000000001E-11</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -692,8 +692,7 @@
         <v>2.5000000000000001E-11</v>
       </c>
       <c r="H6">
-        <f>120000/(40000000)</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>

--- a/test_system.xlsx
+++ b/test_system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089148AF-AB0D-F44D-B6B1-840C2D50BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46385143-2CDD-8244-9396-8487D0D329BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19040" yWindow="6580" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{6CC9C7EE-7165-244E-8401-1CDAC7B98A29}"/>
+    <workbookView xWindow="21320" yWindow="7880" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{6CC9C7EE-7165-244E-8401-1CDAC7B98A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Data (bytes)</t>
   </si>
   <si>
-    <t>Reduction</t>
-  </si>
-  <si>
     <t>Skill mean</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>Sensors</t>
+  </si>
+  <si>
+    <t>Reduction Ratio</t>
   </si>
 </sst>
 </file>
@@ -465,33 +465,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>1000000</v>
@@ -519,10 +519,13 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -535,30 +538,30 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -584,10 +587,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -613,10 +616,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -625,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -642,10 +645,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -671,10 +674,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
